--- a/Наработки/книги/Учитель культивации 1/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации 1/Заметки.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E5AED-11C7-4D29-BA51-EE65742CC229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7199621-B1FE-4828-A309-544D42EA3675}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Золотое тело</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Божественное тело</t>
   </si>
   <si>
-    <t>зрение (видит токи энергии)</t>
-  </si>
-  <si>
     <t>Божественное зрение</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Си Мань</t>
   </si>
   <si>
-    <t>Божественная проницательности</t>
-  </si>
-  <si>
     <t>Секта Огненных Недр</t>
   </si>
   <si>
@@ -129,6 +123,54 @@
   </si>
   <si>
     <t>Санг Вонг</t>
+  </si>
+  <si>
+    <t>Божественная проницательность</t>
+  </si>
+  <si>
+    <t>Зрение Василиска (видит токи энергии, может парализовать слабых)</t>
+  </si>
+  <si>
+    <t>Ядро фениса</t>
+  </si>
+  <si>
+    <t>Божественная метаморфоза</t>
+  </si>
+  <si>
+    <t>Выносливость минотавра (выносливость)</t>
+  </si>
+  <si>
+    <t>Шкура холкотавра (крепкость шкуры)</t>
+  </si>
+  <si>
+    <t>Здоровье титана (ни яд, ни болезни не берут)</t>
+  </si>
+  <si>
+    <t>Святой сосуд (все органы укрепляются и лучше работают)</t>
+  </si>
+  <si>
+    <t>Долголетие ао (долголетие)</t>
+  </si>
+  <si>
+    <t>Регенерация гидры (регенерация)</t>
+  </si>
+  <si>
+    <t>Божественное ядро</t>
+  </si>
+  <si>
+    <t>Ядро дракона</t>
+  </si>
+  <si>
+    <t>Ядро саламандры</t>
+  </si>
+  <si>
+    <t>Ядро ифрита</t>
+  </si>
+  <si>
+    <t>Ядро кошмара</t>
+  </si>
+  <si>
+    <t>Вены даоса</t>
   </si>
 </sst>
 </file>
@@ -470,13 +512,14 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
@@ -505,8 +548,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
@@ -519,8 +566,12 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
@@ -533,8 +584,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
@@ -547,8 +602,12 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
@@ -561,10 +620,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -575,13 +638,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -589,13 +656,17 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>25</v>
@@ -633,7 +704,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -649,7 +720,7 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,21 +731,21 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Наработки/книги/Учитель культивации 1/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации 1/Заметки.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7199621-B1FE-4828-A309-544D42EA3675}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D251D5-9A61-4B5E-A3B5-6BD1B011A5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Золотое тело</t>
   </si>
   <si>
-    <t>Гибкость (изгибается)</t>
-  </si>
-  <si>
     <t>Сила (мощь)</t>
   </si>
   <si>
@@ -119,15 +116,9 @@
     <t>Секта Двух Драконов</t>
   </si>
   <si>
-    <t>Имя ГГ</t>
-  </si>
-  <si>
     <t>Санг Вонг</t>
   </si>
   <si>
-    <t>Божественная проницательность</t>
-  </si>
-  <si>
     <t>Зрение Василиска (видит токи энергии, может парализовать слабых)</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>Регенерация гидры (регенерация)</t>
   </si>
   <si>
-    <t>Божественное ядро</t>
-  </si>
-  <si>
     <t>Ядро дракона</t>
   </si>
   <si>
@@ -171,6 +159,153 @@
   </si>
   <si>
     <t>Вены даоса</t>
+  </si>
+  <si>
+    <t>Драк</t>
+  </si>
+  <si>
+    <t>Бранд</t>
+  </si>
+  <si>
+    <t>Отличительные признаки этапа</t>
+  </si>
+  <si>
+    <t>Формирования ядра, первые техники</t>
+  </si>
+  <si>
+    <t>Физическое усиление, меридианы</t>
+  </si>
+  <si>
+    <t>Ядро получает окрас стихии, стихийные техники</t>
+  </si>
+  <si>
+    <t>Ловкость (изгибается)</t>
+  </si>
+  <si>
+    <t>Ловкость обезяны</t>
+  </si>
+  <si>
+    <t>Гибкость змеи</t>
+  </si>
+  <si>
+    <t>Скорость мангуста</t>
+  </si>
+  <si>
+    <t>Ядро бога</t>
+  </si>
+  <si>
+    <t>Моторика паука</t>
+  </si>
+  <si>
+    <t>Реакция волкодава</t>
+  </si>
+  <si>
+    <t>Божественное сознание</t>
+  </si>
+  <si>
+    <t>Божественная ловкость</t>
+  </si>
+  <si>
+    <t>Привычки</t>
+  </si>
+  <si>
+    <t>В речи</t>
+  </si>
+  <si>
+    <t>В действиях</t>
+  </si>
+  <si>
+    <t>В характере</t>
+  </si>
+  <si>
+    <t>Мия</t>
+  </si>
+  <si>
+    <t>ГГ</t>
+  </si>
+  <si>
+    <t>Текущие ученики</t>
+  </si>
+  <si>
+    <t>МНОГО говорит</t>
+  </si>
+  <si>
+    <t>Заботливая</t>
+  </si>
+  <si>
+    <t>Боготворит воспитателя</t>
+  </si>
+  <si>
+    <t>Бьёт в грудь перед боем</t>
+  </si>
+  <si>
+    <t>Бущие</t>
+  </si>
+  <si>
+    <t>Очкарик</t>
+  </si>
+  <si>
+    <t>Милашка</t>
+  </si>
+  <si>
+    <t>Тёмный эльф</t>
+  </si>
+  <si>
+    <t>Вечно поправляет очки</t>
+  </si>
+  <si>
+    <t>Педант</t>
+  </si>
+  <si>
+    <t>Хобби</t>
+  </si>
+  <si>
+    <t>Карманник</t>
+  </si>
+  <si>
+    <t>Любит драться</t>
+  </si>
+  <si>
+    <t>Выглядит не безопасно</t>
+  </si>
+  <si>
+    <t>Внешность</t>
+  </si>
+  <si>
+    <t>Невезение</t>
+  </si>
+  <si>
+    <t>Вечно ломают нос</t>
+  </si>
+  <si>
+    <t>Трус Проныра Хитрец</t>
+  </si>
+  <si>
+    <t>Полуэльф           Светлые волосы Голубые глаза</t>
+  </si>
+  <si>
+    <t>Орк                               Тёмно-русые волосы Карие глаза</t>
+  </si>
+  <si>
+    <t>Поминает Святую Командует пацанами?</t>
+  </si>
+  <si>
+    <t>Человек                   Чёрные волосы        Узкие зелёные глаза</t>
+  </si>
+  <si>
+    <t>Человек              Блондин</t>
+  </si>
+  <si>
+    <t>(подобран в 11,5)12,5 лет</t>
+  </si>
+  <si>
+    <t>Мало говорит         Называет себя по имени</t>
+  </si>
+  <si>
+    <t>(подобран в 11,5) 12 лет</t>
+  </si>
+  <si>
+    <t>(подобран в 11) 13 лет</t>
   </si>
 </sst>
 </file>
@@ -221,12 +356,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,184 +648,213 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF3F9A3-0AE6-455B-B725-551D80B3F85E}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
@@ -702,56 +869,237 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F9DE6E-20B2-4EB9-B4F2-AEA04AEDE459}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="17" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Наработки/книги/Учитель культивации 1/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации 1/Заметки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D251D5-9A61-4B5E-A3B5-6BD1B011A5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718AB24-5B0E-4B39-911C-0DC4B537AF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Золотое тело</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Бьёт в грудь перед боем</t>
   </si>
   <si>
-    <t>Бущие</t>
-  </si>
-  <si>
     <t>Очкарик</t>
   </si>
   <si>
@@ -306,6 +303,18 @@
   </si>
   <si>
     <t>(подобран в 11) 13 лет</t>
+  </si>
+  <si>
+    <t>Ветренная</t>
+  </si>
+  <si>
+    <t>Драчливый</t>
+  </si>
+  <si>
+    <t>Яростный гений</t>
+  </si>
+  <si>
+    <t>Будущие</t>
   </si>
 </sst>
 </file>
@@ -650,18 +659,18 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="47" customWidth="1"/>
   </cols>
   <sheetData>
@@ -871,8 +880,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +913,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -933,13 +942,13 @@
         <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -957,13 +966,13 @@
         <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -978,16 +987,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1006,7 +1015,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1015,38 +1024,44 @@
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1055,22 +1070,22 @@
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1078,7 +1093,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1086,7 +1101,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>

--- a/Наработки/книги/Учитель культивации 1/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации 1/Заметки.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718AB24-5B0E-4B39-911C-0DC4B537AF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97357C1C-FD62-4126-B887-93B98F4FA273}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
@@ -293,18 +293,12 @@
     <t>Человек              Блондин</t>
   </si>
   <si>
-    <t>(подобран в 11,5)12,5 лет</t>
-  </si>
-  <si>
     <t>Мало говорит         Называет себя по имени</t>
   </si>
   <si>
     <t>(подобран в 11,5) 12 лет</t>
   </si>
   <si>
-    <t>(подобран в 11) 13 лет</t>
-  </si>
-  <si>
     <t>Ветренная</t>
   </si>
   <si>
@@ -315,6 +309,12 @@
   </si>
   <si>
     <t>Будущие</t>
+  </si>
+  <si>
+    <t>(подобран в 11)12 лет</t>
+  </si>
+  <si>
+    <t>(подобран в 11,5) 13,5 лет</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -880,8 +880,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +913,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -966,13 +966,13 @@
         <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -987,7 +987,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>68</v>
@@ -1025,13 +1025,13 @@
         <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">

--- a/Наработки/книги/Учитель культивации 1/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации 1/Заметки.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97357C1C-FD62-4126-B887-93B98F4FA273}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CBD838-C819-49AA-A11C-4D7EC59596F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
@@ -659,17 +659,17 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="47" customWidth="1"/>
   </cols>
@@ -880,7 +880,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/Наработки/книги/Учитель культивации 1/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации 1/Заметки.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97357C1C-FD62-4126-B887-93B98F4FA273}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65885FD2-6809-4BCD-BD4F-877DC4F5D3FA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
     <sheet name="Бывшие и текущие ученики" sheetId="4" r:id="rId2"/>
+    <sheet name="Боги" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Золотое тело</t>
   </si>
@@ -315,6 +316,21 @@
   </si>
   <si>
     <t>(подобран в 11,5) 13,5 лет</t>
+  </si>
+  <si>
+    <t>Жизнь</t>
+  </si>
+  <si>
+    <t>аспект</t>
+  </si>
+  <si>
+    <t>покровительствует</t>
+  </si>
+  <si>
+    <t>Лекарям</t>
+  </si>
+  <si>
+    <t>Святая Алианна</t>
   </si>
 </sst>
 </file>
@@ -880,7 +896,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1117,4 +1133,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162E1973-0AB4-411D-828B-E16CC372E8D3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Наработки/книги/Учитель культивации 1/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации 1/Заметки.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65885FD2-6809-4BCD-BD4F-877DC4F5D3FA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E47823F-9846-4E27-A4DE-9789E33C0433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>Выносливость минотавра (выносливость)</t>
   </si>
   <si>
-    <t>Шкура холкотавра (крепкость шкуры)</t>
-  </si>
-  <si>
     <t>Здоровье титана (ни яд, ни болезни не берут)</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>Святая Алианна</t>
+  </si>
+  <si>
+    <t>Шкура халкотавра (крепкость шкуры)</t>
   </si>
 </sst>
 </file>
@@ -675,15 +675,15 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
@@ -692,7 +692,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -710,15 +710,15 @@
         <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -733,18 +733,18 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -756,18 +756,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -782,13 +782,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -800,18 +800,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
@@ -830,7 +830,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -845,16 +845,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -913,7 +913,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>21</v>
@@ -921,15 +921,15 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -949,22 +949,22 @@
         <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -982,13 +982,13 @@
         <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -996,88 +996,88 @@
     </row>
     <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1086,22 +1086,22 @@
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1117,7 +1117,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1139,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162E1973-0AB4-411D-828B-E16CC372E8D3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1152,23 +1152,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Наработки/книги/Учитель культивации 1/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации 1/Заметки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E47823F-9846-4E27-A4DE-9789E33C0433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D233267-4AC2-443D-A9D6-088DC2DBA5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Золотое тело</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>Шкура халкотавра (крепкость шкуры)</t>
+  </si>
+  <si>
+    <t>Мир внутренней медитации</t>
+  </si>
+  <si>
+    <t>Возможность освоения техники генерации ци</t>
   </si>
 </sst>
 </file>
@@ -676,7 +682,7 @@
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +784,9 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -800,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,7 +830,9 @@
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>

--- a/Наработки/книги/Учитель культивации 1/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации 1/Заметки.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D233267-4AC2-443D-A9D6-088DC2DBA5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C13A030-97EB-4341-A5D0-E14C8F78B5E9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
     <sheet name="Бывшие и текущие ученики" sheetId="4" r:id="rId2"/>
     <sheet name="Боги" sheetId="5" r:id="rId3"/>
+    <sheet name="База развития" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Золотое тело</t>
   </si>
@@ -337,6 +338,15 @@
   </si>
   <si>
     <t>Возможность освоения техники генерации ци</t>
+  </si>
+  <si>
+    <t>Почувствовать энергию</t>
+  </si>
+  <si>
+    <t>Формирования духовного тела (начинается с ключевого атрибута)</t>
+  </si>
+  <si>
+    <t>Развитие тела, разума и накопление энергии</t>
   </si>
 </sst>
 </file>
@@ -681,8 +691,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,4 +1194,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA4B491-1A41-44C0-851A-3B2D280C0DCC}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>